--- a/.idea/準備素材.xlsx
+++ b/.idea/準備素材.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>素材</t>
     <rPh sb="0" eb="2">
@@ -427,6 +427,216 @@
     <rPh sb="5" eb="7">
       <t>モジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト時</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opening.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageselect.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageclear.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameover.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ending.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_play.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_record.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_option.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_title.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_left.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_right.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage1～10button.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageselect_howtoplay.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageselect_play.png</t>
+  </si>
+  <si>
+    <t>stageselect_title.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageselect_yes.png</t>
+  </si>
+  <si>
+    <t>stageselect_no.png</t>
+  </si>
+  <si>
+    <t>howtoplay_back.png</t>
+  </si>
+  <si>
+    <t>stage_pause.png</t>
+  </si>
+  <si>
+    <t>stage_go.png</t>
+  </si>
+  <si>
+    <t>stage_surrender.png</t>
+  </si>
+  <si>
+    <t>stage_yes.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage_no.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageclear_tonextstage.png</t>
+  </si>
+  <si>
+    <t>stageclear_tostageselect.png</t>
+  </si>
+  <si>
+    <t>gameover_retry.png</t>
+  </si>
+  <si>
+    <t>gameover_tostageselect.png</t>
+  </si>
+  <si>
+    <t>optiontap.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageasobu.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mastap.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timeup.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clear.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titletap.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tap.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recordkousin.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opening_sping_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opening_sping_2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opening_sping_3.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title_sping.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageselect_1～10.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>howtoplay_1～4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage_masempty.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage_masnuri.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage_stopwatch.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stageclear_sping.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameover_sping.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ending_sping.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -434,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,16 +668,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -476,27 +708,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,16 +727,127 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -529,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,13 +871,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,444 +1223,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C3" s="4" t="s">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="G6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="4" t="s">
+      <c r="M8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="4" t="s">
+      <c r="O9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="4" t="s">
+      <c r="L15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="4" t="s">
+      <c r="L18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="L19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C22" s="4"/>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C24" s="4"/>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="G25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
